--- a/Results/Plot data/ipcc_ar6_figure_spm_sectors.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_spm_sectors.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">Oil and gas fugitive emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">Oil and gas fugitive emissions (4.5%)</t>
+    <t xml:space="preserve">Oil and gas fugitive emissions (4.4%)</t>
   </si>
   <si>
     <t xml:space="preserve">Other (energy systems)</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">Waste</t>
   </si>
   <si>
-    <t xml:space="preserve">Waste (4%)</t>
+    <t xml:space="preserve">Waste (3.9%)</t>
   </si>
   <si>
     <t xml:space="preserve">Chemicals</t>
@@ -112,25 +112,25 @@
     <t xml:space="preserve">Other (industry)</t>
   </si>
   <si>
-    <t xml:space="preserve">Other (industry) (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass burning (CO2, CH4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass burning (CO2, CH4) (0.12%)</t>
+    <t xml:space="preserve">Other (industry) (13.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass burning (CH4, N2O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass burning (CH4, N2O) (0.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manure management (N2O, CH4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manure management (N2O, CH4) (0.7%)</t>
   </si>
   <si>
     <t xml:space="preserve">Synthetic fertilizer application (N2O)</t>
   </si>
   <si>
-    <t xml:space="preserve">Synthetic fertilizer application (N2O) (0.58%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manure management (N2O, CH4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manure management (N2O, CH4) (0.72%)</t>
+    <t xml:space="preserve">Synthetic fertilizer application (N2O) (0.8%)</t>
   </si>
   <si>
     <t xml:space="preserve">Rice cultivation (CH4)</t>
@@ -142,7 +142,7 @@
     <t xml:space="preserve">Managed soils and pasture (CO2, N2O)</t>
   </si>
   <si>
-    <t xml:space="preserve">Managed soils and pasture (CO2, N2O) (2.4%)</t>
+    <t xml:space="preserve">Managed soils and pasture (CO2, N2O) (2.5%)</t>
   </si>
   <si>
     <t xml:space="preserve">Enteric Fermentation (CH4)</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">LULUCF CO2</t>
   </si>
   <si>
-    <t xml:space="preserve">LULUCF CO2 (11%)</t>
+    <t xml:space="preserve">LULUCF CO2 (11.2%)</t>
   </si>
   <si>
     <t xml:space="preserve">Inland Shipping</t>
@@ -166,13 +166,13 @@
     <t xml:space="preserve">Rail </t>
   </si>
   <si>
-    <t xml:space="preserve">Rail  (0.43%)</t>
+    <t xml:space="preserve">Rail  (0.4%)</t>
   </si>
   <si>
     <t xml:space="preserve">Domestic Aviation</t>
   </si>
   <si>
-    <t xml:space="preserve">Domestic Aviation (0.67%)</t>
+    <t xml:space="preserve">Domestic Aviation (0.7%)</t>
   </si>
   <si>
     <t xml:space="preserve">Other (transport)</t>
@@ -196,13 +196,13 @@
     <t xml:space="preserve">Road</t>
   </si>
   <si>
-    <t xml:space="preserve">Road (11%)</t>
+    <t xml:space="preserve">Road (10.5%)</t>
   </si>
   <si>
     <t xml:space="preserve">Non-CO2 (all buildings)</t>
   </si>
   <si>
-    <t xml:space="preserve">Non-CO2 (all buildings) (0.073%)</t>
+    <t xml:space="preserve">Non-CO2 (all buildings) (0.1%)</t>
   </si>
   <si>
     <t xml:space="preserve">Non-residential</t>
@@ -214,7 +214,7 @@
     <t xml:space="preserve">Residential</t>
   </si>
   <si>
-    <t xml:space="preserve">Residential (11%)</t>
+    <t xml:space="preserve">Residential (10.6%)</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>12.8514554273919</v>
+        <v>12.9775309663637</v>
       </c>
       <c r="C2" t="n">
         <v>22</v>
@@ -587,7 +587,7 @@
         <v>13.8392696618948</v>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="5">
@@ -598,7 +598,7 @@
         <v>6.14027662374651</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="6">
@@ -609,7 +609,7 @@
         <v>14.1122057326628</v>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="7">
@@ -620,7 +620,7 @@
         <v>8.71807557408101</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
     </row>
   </sheetData>
@@ -668,7 +668,7 @@
         <v>7.30198040499617</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="3">
@@ -685,7 +685,7 @@
         <v>7.30198040499617</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="4">
@@ -702,7 +702,7 @@
         <v>20.0253905011338</v>
       </c>
       <c r="E4" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="5">
@@ -719,7 +719,7 @@
         <v>20.0253905011338</v>
       </c>
       <c r="E5" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="6">
@@ -730,10 +730,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>12.8514554273919</v>
+        <v>12.9775309663637</v>
       </c>
       <c r="D6" t="n">
-        <v>12.8514554273919</v>
+        <v>12.9775309663637</v>
       </c>
       <c r="E6" t="n">
         <v>22</v>
@@ -748,7 +748,7 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="n">
-        <v>12.8514554273919</v>
+        <v>12.9775309663637</v>
       </c>
       <c r="E7" t="n">
         <v>22</v>
@@ -768,7 +768,7 @@
         <v>8.94136614586484</v>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="9">
@@ -785,7 +785,7 @@
         <v>8.94136614586484</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="10">
@@ -802,7 +802,7 @@
         <v>9.74786893235828</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="11">
@@ -819,7 +819,7 @@
         <v>9.74786893235828</v>
       </c>
       <c r="E11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +910,7 @@
         <v>2.62003212670528</v>
       </c>
       <c r="E4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -970,7 +970,7 @@
         <v>2.32670399008267</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>7.85291511699677</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -1050,7 +1050,7 @@
         <v>0.0682785057617064</v>
       </c>
       <c r="E11" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -1067,10 +1067,10 @@
         <v>35</v>
       </c>
       <c r="D12" t="n">
-        <v>0.342983277350877</v>
+        <v>0.426016532913334</v>
       </c>
       <c r="E12" t="n">
-        <v>0.58</v>
+        <v>0.7</v>
       </c>
       <c r="F12" t="s">
         <v>36</v>
@@ -1087,10 +1087,10 @@
         <v>37</v>
       </c>
       <c r="D13" t="n">
-        <v>0.426016532913334</v>
+        <v>0.443006868072477</v>
       </c>
       <c r="E13" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>
@@ -1127,10 +1127,10 @@
         <v>41</v>
       </c>
       <c r="D15" t="n">
-        <v>1.42975708637025</v>
+        <v>1.45580903462043</v>
       </c>
       <c r="E15" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="F15" t="s">
         <v>42</v>
@@ -1170,7 +1170,7 @@
         <v>6.6050388476</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F17" t="s">
         <v>46</v>
@@ -1210,7 +1210,7 @@
         <v>0.253872814464669</v>
       </c>
       <c r="E19" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="F19" t="s">
         <v>50</v>
@@ -1230,7 +1230,7 @@
         <v>0.394138112810141</v>
       </c>
       <c r="E20" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="F20" t="s">
         <v>52</v>
@@ -1310,7 +1310,7 @@
         <v>6.18296963976905</v>
       </c>
       <c r="E24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="F24" t="s">
         <v>60</v>
@@ -1330,7 +1330,7 @@
         <v>0.0428828735760605</v>
       </c>
       <c r="E25" t="n">
-        <v>0.073</v>
+        <v>0.1</v>
       </c>
       <c r="F25" t="s">
         <v>62</v>
@@ -1370,7 +1370,7 @@
         <v>6.2521844490302</v>
       </c>
       <c r="E27" t="n">
-        <v>11</v>
+        <v>10.6</v>
       </c>
       <c r="F27" t="s">
         <v>66</v>

--- a/Results/Plot data/ipcc_ar6_figure_spm_sectors.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_spm_sectors.xlsx
@@ -112,25 +112,25 @@
     <t xml:space="preserve">Other (industry)</t>
   </si>
   <si>
-    <t xml:space="preserve">Other (industry) (13.3%)</t>
+    <t xml:space="preserve">Other (industry) (13%)</t>
   </si>
   <si>
     <t xml:space="preserve">Biomass burning (CH4, N2O)</t>
   </si>
   <si>
-    <t xml:space="preserve">Biomass burning (CH4, N2O) (0.1%)</t>
+    <t xml:space="preserve">Biomass burning (CH4, N2O) (0.12%)</t>
   </si>
   <si>
     <t xml:space="preserve">Manure management (N2O, CH4)</t>
   </si>
   <si>
-    <t xml:space="preserve">Manure management (N2O, CH4) (0.7%)</t>
+    <t xml:space="preserve">Manure management (N2O, CH4) (0.72%)</t>
   </si>
   <si>
     <t xml:space="preserve">Synthetic fertilizer application (N2O)</t>
   </si>
   <si>
-    <t xml:space="preserve">Synthetic fertilizer application (N2O) (0.8%)</t>
+    <t xml:space="preserve">Synthetic fertilizer application (N2O) (0.75%)</t>
   </si>
   <si>
     <t xml:space="preserve">Rice cultivation (CH4)</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">LULUCF CO2</t>
   </si>
   <si>
-    <t xml:space="preserve">LULUCF CO2 (11.2%)</t>
+    <t xml:space="preserve">LULUCF CO2 (11%)</t>
   </si>
   <si>
     <t xml:space="preserve">Inland Shipping</t>
@@ -166,13 +166,13 @@
     <t xml:space="preserve">Rail </t>
   </si>
   <si>
-    <t xml:space="preserve">Rail  (0.4%)</t>
+    <t xml:space="preserve">Rail  (0.43%)</t>
   </si>
   <si>
     <t xml:space="preserve">Domestic Aviation</t>
   </si>
   <si>
-    <t xml:space="preserve">Domestic Aviation (0.7%)</t>
+    <t xml:space="preserve">Domestic Aviation (0.67%)</t>
   </si>
   <si>
     <t xml:space="preserve">Other (transport)</t>
@@ -196,13 +196,13 @@
     <t xml:space="preserve">Road</t>
   </si>
   <si>
-    <t xml:space="preserve">Road (10.5%)</t>
+    <t xml:space="preserve">Road (10%)</t>
   </si>
   <si>
     <t xml:space="preserve">Non-CO2 (all buildings)</t>
   </si>
   <si>
-    <t xml:space="preserve">Non-CO2 (all buildings) (0.1%)</t>
+    <t xml:space="preserve">Non-CO2 (all buildings) (0.073%)</t>
   </si>
   <si>
     <t xml:space="preserve">Non-residential</t>
@@ -214,7 +214,7 @@
     <t xml:space="preserve">Residential</t>
   </si>
   <si>
-    <t xml:space="preserve">Residential (10.6%)</t>
+    <t xml:space="preserve">Residential (11%)</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
         <v>13.8392696618948</v>
       </c>
       <c r="C4" t="n">
-        <v>23.4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -598,7 +598,7 @@
         <v>6.14027662374651</v>
       </c>
       <c r="C5" t="n">
-        <v>10.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -609,7 +609,7 @@
         <v>14.1122057326628</v>
       </c>
       <c r="C6" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -620,7 +620,7 @@
         <v>8.71807557408101</v>
       </c>
       <c r="C7" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -668,7 +668,7 @@
         <v>7.30198040499617</v>
       </c>
       <c r="E2" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -685,7 +685,7 @@
         <v>7.30198040499617</v>
       </c>
       <c r="E3" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -702,7 +702,7 @@
         <v>20.0253905011338</v>
       </c>
       <c r="E4" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -719,7 +719,7 @@
         <v>20.0253905011338</v>
       </c>
       <c r="E5" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -768,7 +768,7 @@
         <v>8.94136614586484</v>
       </c>
       <c r="E8" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -785,7 +785,7 @@
         <v>8.94136614586484</v>
       </c>
       <c r="E9" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -802,7 +802,7 @@
         <v>9.74786893235828</v>
       </c>
       <c r="E10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -819,7 +819,7 @@
         <v>9.74786893235828</v>
       </c>
       <c r="E11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1030,7 +1030,7 @@
         <v>7.85291511699677</v>
       </c>
       <c r="E10" t="n">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -1050,7 +1050,7 @@
         <v>0.0682785057617064</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -1070,7 +1070,7 @@
         <v>0.426016532913334</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="F12" t="s">
         <v>36</v>
@@ -1090,7 +1090,7 @@
         <v>0.443006868072477</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>
@@ -1170,7 +1170,7 @@
         <v>6.6050388476</v>
       </c>
       <c r="E17" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
         <v>46</v>
@@ -1210,7 +1210,7 @@
         <v>0.253872814464669</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="F19" t="s">
         <v>50</v>
@@ -1230,7 +1230,7 @@
         <v>0.394138112810141</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="F20" t="s">
         <v>52</v>
@@ -1310,7 +1310,7 @@
         <v>6.18296963976905</v>
       </c>
       <c r="E24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
         <v>60</v>
@@ -1330,7 +1330,7 @@
         <v>0.0428828735760605</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1</v>
+        <v>0.073</v>
       </c>
       <c r="F25" t="s">
         <v>62</v>
@@ -1370,7 +1370,7 @@
         <v>6.2521844490302</v>
       </c>
       <c r="E27" t="n">
-        <v>10.6</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
         <v>66</v>

--- a/Results/Plot data/ipcc_ar6_figure_spm_sectors.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_spm_sectors.xlsx
@@ -6,23 +6,54 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="direct emissions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="indirect emissions" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="indirect emissions - subsectors" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="direct emissions" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="indirect emissions" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="indirect emissions - subsectors" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t xml:space="preserve">Author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William F. Lamb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-14 10:09:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/mcc-apsis/AR6-Emissions-trends-and-drivers/blob/master/R/Analysis%20and%20figures/direct_indirect_emissions.Rmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GtCO2eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
   <si>
     <t xml:space="preserve">chapter_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GHG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fraction</t>
   </si>
   <si>
     <t xml:space="preserve">AFOLU</t>
@@ -553,74 +584,53 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>12.9775309663637</v>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>3.30326626886358</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5.6</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>13.8392696618948</v>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6.14027662374651</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>14.1122057326628</v>
-      </c>
-      <c r="C6" t="n">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>8.71807557408101</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -639,187 +649,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12.9775309663637</v>
       </c>
       <c r="C2" t="n">
-        <v>6.14027662374651</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.30198040499617</v>
-      </c>
-      <c r="E2" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.30326626886358</v>
       </c>
       <c r="C3" t="n">
-        <v>1.16170378124966</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.30198040499617</v>
-      </c>
-      <c r="E3" t="n">
-        <v>12</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13.8392696618948</v>
       </c>
       <c r="C4" t="n">
-        <v>14.1122057326628</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.0253905011338</v>
-      </c>
-      <c r="E4" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.14027662374651</v>
       </c>
       <c r="C5" t="n">
-        <v>5.91318476847108</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.0253905011338</v>
-      </c>
-      <c r="E5" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.1122057326628</v>
       </c>
       <c r="C6" t="n">
-        <v>12.9775309663637</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12.9775309663637</v>
-      </c>
-      <c r="E6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7" t="n">
-        <v>12.9775309663637</v>
-      </c>
-      <c r="E7" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="B7" t="n">
         <v>8.71807557408101</v>
       </c>
-      <c r="D8" t="n">
-        <v>8.94136614586484</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="C7" t="n">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.223290571783821</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8.94136614586484</v>
-      </c>
-      <c r="E9" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.30326626886358</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9.74786893235828</v>
-      </c>
-      <c r="E10" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.4446026634947</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9.74786893235828</v>
-      </c>
-      <c r="E11" t="n">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -841,19 +743,218 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.14027662374651</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.30198040499617</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.16170378124966</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.30198040499617</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14.1122057326628</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.0253905011338</v>
+      </c>
+      <c r="E4" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.91318476847108</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.0253905011338</v>
+      </c>
+      <c r="E5" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12.9775309663637</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.9775309663637</v>
+      </c>
+      <c r="E6" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="n">
+        <v>12.9775309663637</v>
+      </c>
+      <c r="E7" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.71807557408101</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.94136614586484</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.223290571783821</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.94136614586484</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.30326626886358</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.74786893235828</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.4446026634947</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9.74786893235828</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -861,10 +962,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
         <v>0.629138706260922</v>
@@ -873,7 +974,7 @@
         <v>1.1</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -881,10 +982,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
         <v>1.27885470039701</v>
@@ -893,7 +994,7 @@
         <v>2.2</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -901,10 +1002,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
         <v>2.62003212670528</v>
@@ -913,7 +1014,7 @@
         <v>4.4</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -921,10 +1022,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
         <v>2.77395487163296</v>
@@ -933,7 +1034,7 @@
         <v>4.7</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -941,10 +1042,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
         <v>1.5483146679</v>
@@ -953,7 +1054,7 @@
         <v>2.6</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -961,10 +1062,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
         <v>2.32670399008267</v>
@@ -973,7 +1074,7 @@
         <v>3.9</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -981,10 +1082,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D8" t="n">
         <v>3.70068510843741</v>
@@ -993,7 +1094,7 @@
         <v>6.3</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -1001,10 +1102,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D9" t="n">
         <v>4.59677161771698</v>
@@ -1013,7 +1114,7 @@
         <v>7.8</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -1021,10 +1122,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D10" t="n">
         <v>7.85291511699677</v>
@@ -1033,7 +1134,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -1041,10 +1142,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D11" t="n">
         <v>0.0682785057617064</v>
@@ -1053,7 +1154,7 @@
         <v>0.12</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -1061,10 +1162,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D12" t="n">
         <v>0.426016532913334</v>
@@ -1073,7 +1174,7 @@
         <v>0.72</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -1081,10 +1182,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D13" t="n">
         <v>0.443006868072477</v>
@@ -1093,7 +1194,7 @@
         <v>0.75</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -1101,10 +1202,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D14" t="n">
         <v>1.01757779807094</v>
@@ -1113,7 +1214,7 @@
         <v>1.7</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -1121,10 +1222,10 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D15" t="n">
         <v>1.45580903462043</v>
@@ -1133,7 +1234,7 @@
         <v>2.5</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
@@ -1141,10 +1242,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D16" t="n">
         <v>2.96180337932477</v>
@@ -1153,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
@@ -1161,10 +1262,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D17" t="n">
         <v>6.6050388476</v>
@@ -1173,7 +1274,7 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1181,10 +1282,10 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D18" t="n">
         <v>0.176709821781149</v>
@@ -1193,7 +1294,7 @@
         <v>0.3</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -1201,10 +1302,10 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D19" t="n">
         <v>0.253872814464669</v>
@@ -1213,7 +1314,7 @@
         <v>0.43</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -1221,10 +1322,10 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D20" t="n">
         <v>0.394138112810141</v>
@@ -1233,7 +1334,7 @@
         <v>0.67</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
@@ -1241,10 +1342,10 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D21" t="n">
         <v>0.532234093251387</v>
@@ -1253,7 +1354,7 @@
         <v>0.9</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
@@ -1261,10 +1362,10 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D22" t="n">
         <v>0.620824495451895</v>
@@ -1273,7 +1374,7 @@
         <v>1.1</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -1281,10 +1382,10 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D23" t="n">
         <v>0.780617168336543</v>
@@ -1293,7 +1394,7 @@
         <v>1.3</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -1301,10 +1402,10 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D24" t="n">
         <v>6.18296963976905</v>
@@ -1313,7 +1414,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -1321,10 +1422,10 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D25" t="n">
         <v>0.0428828735760605</v>
@@ -1333,7 +1434,7 @@
         <v>0.073</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
@@ -1341,10 +1442,10 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D26" t="n">
         <v>3.45280160975202</v>
@@ -1353,7 +1454,7 @@
         <v>5.9</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
@@ -1361,10 +1462,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D27" t="n">
         <v>6.2521844490302</v>
@@ -1373,7 +1474,7 @@
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Plot data/ipcc_ar6_figure_spm_sectors.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_spm_sectors.xlsx
@@ -1,259 +1,265 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamw\ownCloud\Projects\AR6-Emissions-trends-and-drivers\Results\Plot data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="direct emissions" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="indirect emissions" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="indirect emissions - subsectors" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="info" sheetId="1" r:id="rId1"/>
+    <sheet name="direct emissions" sheetId="2" r:id="rId2"/>
+    <sheet name="indirect emissions" sheetId="3" r:id="rId3"/>
+    <sheet name="indirect emissions - subsectors" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
-  <si>
-    <t xml:space="preserve">Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">William F. Lamb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-14 10:09:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/mcc-apsis/AR6-Emissions-trends-and-drivers/blob/master/R/Analysis%20and%20figures/direct_indirect_emissions.Rmd</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GHG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GtCO2eq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chapter_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFOLU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricity &amp; heat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2_indirect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chapter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subsector_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petroleum refining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petroleum refining (1.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coal mining fugitive emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coal mining fugitive emissions (2.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil and gas fugitive emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil and gas fugitive emissions (4.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (energy systems)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (energy systems) (4.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cement (2.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waste (3.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemicals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemicals (6.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metals (7.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (industry)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (industry) (13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass burning (CH4, N2O)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass burning (CH4, N2O) (0.12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manure management (N2O, CH4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manure management (N2O, CH4) (0.72%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synthetic fertilizer application (N2O)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synthetic fertilizer application (N2O) (0.75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rice cultivation (CH4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rice cultivation (CH4) (1.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Managed soils and pasture (CO2, N2O)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Managed soils and pasture (CO2, N2O) (2.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enteric Fermentation (CH4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enteric Fermentation (CH4) (5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULUCF CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULUCF CO2 (11%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inland Shipping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inland Shipping (0.3%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>William F. Lamb</t>
+  </si>
+  <si>
+    <t>Last update</t>
+  </si>
+  <si>
+    <t>2021-10-14 10:09:23</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>https://github.com/mcc-apsis/AR6-Emissions-trends-and-drivers/blob/master/R/Analysis%20and%20figures/direct_indirect_emissions.Rmd</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>GHG</t>
+  </si>
+  <si>
+    <t>GtCO2eq</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>chapter_title</t>
+  </si>
+  <si>
+    <t>AFOLU</t>
+  </si>
+  <si>
+    <t>Buildings</t>
+  </si>
+  <si>
+    <t>Electricity &amp; heat</t>
+  </si>
+  <si>
+    <t>Energy systems</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>CO2_indirect</t>
+  </si>
+  <si>
+    <t>chapter</t>
+  </si>
+  <si>
+    <t>subsector_title</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Petroleum refining</t>
+  </si>
+  <si>
+    <t>Petroleum refining (1.1%)</t>
+  </si>
+  <si>
+    <t>Coal mining fugitive emissions</t>
+  </si>
+  <si>
+    <t>Coal mining fugitive emissions (2.2%)</t>
+  </si>
+  <si>
+    <t>Oil and gas fugitive emissions</t>
+  </si>
+  <si>
+    <t>Oil and gas fugitive emissions (4.4%)</t>
+  </si>
+  <si>
+    <t>Other (energy systems)</t>
+  </si>
+  <si>
+    <t>Other (energy systems) (4.7%)</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Cement (2.6%)</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>Waste (3.9%)</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Chemicals (6.3%)</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Metals (7.8%)</t>
+  </si>
+  <si>
+    <t>Other (industry)</t>
+  </si>
+  <si>
+    <t>Other (industry) (13%)</t>
+  </si>
+  <si>
+    <t>Biomass burning (CH4, N2O)</t>
+  </si>
+  <si>
+    <t>Biomass burning (CH4, N2O) (0.12%)</t>
+  </si>
+  <si>
+    <t>Manure management (N2O, CH4)</t>
+  </si>
+  <si>
+    <t>Manure management (N2O, CH4) (0.72%)</t>
+  </si>
+  <si>
+    <t>Synthetic fertilizer application (N2O)</t>
+  </si>
+  <si>
+    <t>Synthetic fertilizer application (N2O) (0.75%)</t>
+  </si>
+  <si>
+    <t>Rice cultivation (CH4)</t>
+  </si>
+  <si>
+    <t>Rice cultivation (CH4) (1.7%)</t>
+  </si>
+  <si>
+    <t>Managed soils and pasture (CO2, N2O)</t>
+  </si>
+  <si>
+    <t>Managed soils and pasture (CO2, N2O) (2.5%)</t>
+  </si>
+  <si>
+    <t>Enteric Fermentation (CH4)</t>
+  </si>
+  <si>
+    <t>Enteric Fermentation (CH4) (5%)</t>
+  </si>
+  <si>
+    <t>LULUCF CO2</t>
+  </si>
+  <si>
+    <t>LULUCF CO2 (11%)</t>
+  </si>
+  <si>
+    <t>Inland Shipping</t>
+  </si>
+  <si>
+    <t>Inland Shipping (0.3%)</t>
   </si>
   <si>
     <t xml:space="preserve">Rail </t>
   </si>
   <si>
-    <t xml:space="preserve">Rail  (0.43%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic Aviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic Aviation (0.67%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (transport)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other (transport) (0.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Aviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Aviation (1.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Shipping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Shipping (1.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Road (10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-CO2 (all buildings)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-CO2 (all buildings) (0.073%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-residential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-residential (5.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential (11%)</t>
+    <t>Rail  (0.43%)</t>
+  </si>
+  <si>
+    <t>Domestic Aviation</t>
+  </si>
+  <si>
+    <t>Domestic Aviation (0.67%)</t>
+  </si>
+  <si>
+    <t>Other (transport)</t>
+  </si>
+  <si>
+    <t>Other (transport) (0.9%)</t>
+  </si>
+  <si>
+    <t>International Aviation</t>
+  </si>
+  <si>
+    <t>International Aviation (1.1%)</t>
+  </si>
+  <si>
+    <t>International Shipping</t>
+  </si>
+  <si>
+    <t>International Shipping (1.3%)</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>Road (10%)</t>
+  </si>
+  <si>
+    <t>Non-CO2 (all buildings)</t>
+  </si>
+  <si>
+    <t>Non-CO2 (all buildings) (0.073%)</t>
+  </si>
+  <si>
+    <t>Non-residential</t>
+  </si>
+  <si>
+    <t>Non-residential (5.9%)</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>Residential (11%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -282,13 +288,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -570,14 +586,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -593,7 +609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -601,7 +617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -609,7 +625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -617,7 +633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -625,7 +641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -635,19 +651,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -658,87 +674,89 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>12.9775309663637</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>22</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="n">
-        <v>3.30326626886358</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>3.3032662688635801</v>
+      </c>
+      <c r="C3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>13.8392696618948</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>23</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
-        <v>6.14027662374651</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5">
+        <v>6.1402766237465096</v>
+      </c>
+      <c r="C5">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="n">
-        <v>14.1122057326628</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>14.112205732662799</v>
+      </c>
+      <c r="C6">
         <v>24</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="n">
-        <v>8.71807557408101</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>8.7180755740810092</v>
+      </c>
+      <c r="C7">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -755,189 +773,238 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
-        <v>6.14027662374651</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.30198040499617</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="C2">
+        <v>6.1402766237465096</v>
+      </c>
+      <c r="D2">
+        <v>7.3019804049961703</v>
+      </c>
+      <c r="E2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F10" si="0">D2/$C$13</f>
+        <v>0.12377467969564798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1.16170378124966</v>
       </c>
-      <c r="D3" t="n">
-        <v>7.30198040499617</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>7.3019804049961703</v>
+      </c>
+      <c r="E3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12377467969564798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="n">
-        <v>14.1122057326628</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.0253905011338</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="C4">
+        <v>14.112205732662799</v>
+      </c>
+      <c r="D4">
+        <v>20.025390501133799</v>
+      </c>
+      <c r="E4">
         <v>34</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33944713044726499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="n">
-        <v>5.91318476847108</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.0253905011338</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="C5">
+        <v>5.9131847684710799</v>
+      </c>
+      <c r="D5">
+        <v>20.025390501133799</v>
+      </c>
+      <c r="E5">
         <v>34</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33944713044726499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>12.9775309663637</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>12.9775309663637</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>22</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21998001220367044</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7"/>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>12.9775309663637</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>22</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21998001220367044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="n">
-        <v>8.71807557408101</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8.94136614586484</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="C8">
+        <v>8.7180755740810092</v>
+      </c>
+      <c r="D8">
+        <v>8.9413661458648406</v>
+      </c>
+      <c r="E8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15156364018570817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.223290571783821</v>
       </c>
-      <c r="D9" t="n">
-        <v>8.94136614586484</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>8.9413661458648406</v>
+      </c>
+      <c r="E9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15156364018570817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="n">
-        <v>3.30326626886358</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9.74786893235828</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="C10">
+        <v>3.3032662688635801</v>
+      </c>
+      <c r="D10">
+        <v>9.7478689323582799</v>
+      </c>
+      <c r="E10">
         <v>16</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1652345374677073</v>
+      </c>
+      <c r="H10">
+        <f>SUM(D10,D8,D4)/C13</f>
+        <v>0.65624530810068038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="n">
-        <v>6.4446026634947</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9.74786893235828</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="C11">
+        <v>6.4446026634946998</v>
+      </c>
+      <c r="D11">
+        <v>9.7478689323582799</v>
+      </c>
+      <c r="E11">
         <v>16</v>
+      </c>
+      <c r="F11" s="1">
+        <f>D11/$C$13</f>
+        <v>0.1652345374677073</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>SUM(C2:C11)</f>
+        <v>58.994136950716857</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -957,8 +1024,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -967,18 +1034,18 @@
       <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.629138706260922</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.1</v>
+      <c r="D2">
+        <v>0.62913870626092205</v>
+      </c>
+      <c r="E2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -987,18 +1054,18 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.27885470039701</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.2</v>
+      <c r="D3">
+        <v>1.2788547003970101</v>
+      </c>
+      <c r="E3">
+        <v>2.2000000000000002</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -1007,18 +1074,18 @@
       <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="n">
-        <v>2.62003212670528</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4.4</v>
+      <c r="D4">
+        <v>2.6200321267052802</v>
+      </c>
+      <c r="E4">
+        <v>4.4000000000000004</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -1027,18 +1094,18 @@
       <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="n">
-        <v>2.77395487163296</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>2.7739548716329598</v>
+      </c>
+      <c r="E5">
         <v>4.7</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>11</v>
       </c>
       <c r="B6" t="s">
@@ -1047,18 +1114,18 @@
       <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="n">
-        <v>1.5483146679</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>1.5483146678999999</v>
+      </c>
+      <c r="E6">
         <v>2.6</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>11</v>
       </c>
       <c r="B7" t="s">
@@ -1067,18 +1134,18 @@
       <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="n">
-        <v>2.32670399008267</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>2.3267039900826698</v>
+      </c>
+      <c r="E7">
         <v>3.9</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>11</v>
       </c>
       <c r="B8" t="s">
@@ -1087,18 +1154,18 @@
       <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="n">
-        <v>3.70068510843741</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>3.7006851084374102</v>
+      </c>
+      <c r="E8">
         <v>6.3</v>
       </c>
       <c r="F8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>11</v>
       </c>
       <c r="B9" t="s">
@@ -1107,18 +1174,18 @@
       <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="n">
-        <v>4.59677161771698</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>4.5967716177169802</v>
+      </c>
+      <c r="E9">
         <v>7.8</v>
       </c>
       <c r="F9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>11</v>
       </c>
       <c r="B10" t="s">
@@ -1127,18 +1194,18 @@
       <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="n">
-        <v>7.85291511699677</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>7.8529151169967699</v>
+      </c>
+      <c r="E10">
         <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
@@ -1147,18 +1214,18 @@
       <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.0682785057617064</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>6.8278505761706396E-2</v>
+      </c>
+      <c r="E11">
         <v>0.12</v>
       </c>
       <c r="F11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>7</v>
       </c>
       <c r="B12" t="s">
@@ -1167,18 +1234,18 @@
       <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.426016532913334</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.42601653291333402</v>
+      </c>
+      <c r="E12">
         <v>0.72</v>
       </c>
       <c r="F12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>7</v>
       </c>
       <c r="B13" t="s">
@@ -1187,18 +1254,18 @@
       <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.443006868072477</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.44300686807247702</v>
+      </c>
+      <c r="E13">
         <v>0.75</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" t="s">
@@ -1207,18 +1274,18 @@
       <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>1.01757779807094</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>1.7</v>
       </c>
       <c r="F14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" t="s">
@@ -1227,18 +1294,18 @@
       <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>1.45580903462043</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>2.5</v>
       </c>
       <c r="F15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>7</v>
       </c>
       <c r="B16" t="s">
@@ -1247,18 +1314,18 @@
       <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>2.96180337932477</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>5</v>
       </c>
       <c r="F16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>7</v>
       </c>
       <c r="B17" t="s">
@@ -1267,18 +1334,18 @@
       <c r="C17" t="s">
         <v>55</v>
       </c>
-      <c r="D17" t="n">
-        <v>6.6050388476</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>6.6050388476000004</v>
+      </c>
+      <c r="E17">
         <v>11</v>
       </c>
       <c r="F17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>10</v>
       </c>
       <c r="B18" t="s">
@@ -1287,18 +1354,18 @@
       <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.176709821781149</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>0.3</v>
       </c>
       <c r="F18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>10</v>
       </c>
       <c r="B19" t="s">
@@ -1307,18 +1374,18 @@
       <c r="C19" t="s">
         <v>59</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.253872814464669</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.25387281446466903</v>
+      </c>
+      <c r="E19">
         <v>0.43</v>
       </c>
       <c r="F19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>10</v>
       </c>
       <c r="B20" t="s">
@@ -1327,18 +1394,18 @@
       <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.394138112810141</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.39413811281014099</v>
+      </c>
+      <c r="E20">
         <v>0.67</v>
       </c>
       <c r="F20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>10</v>
       </c>
       <c r="B21" t="s">
@@ -1347,18 +1414,18 @@
       <c r="C21" t="s">
         <v>63</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.532234093251387</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.53223409325138704</v>
+      </c>
+      <c r="E21">
         <v>0.9</v>
       </c>
       <c r="F21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>10</v>
       </c>
       <c r="B22" t="s">
@@ -1367,18 +1434,18 @@
       <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.620824495451895</v>
       </c>
-      <c r="E22" t="n">
-        <v>1.1</v>
+      <c r="E22">
+        <v>1.1000000000000001</v>
       </c>
       <c r="F22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>10</v>
       </c>
       <c r="B23" t="s">
@@ -1387,18 +1454,18 @@
       <c r="C23" t="s">
         <v>67</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.780617168336543</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.78061716833654304</v>
+      </c>
+      <c r="E23">
         <v>1.3</v>
       </c>
       <c r="F23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>10</v>
       </c>
       <c r="B24" t="s">
@@ -1407,18 +1474,18 @@
       <c r="C24" t="s">
         <v>69</v>
       </c>
-      <c r="D24" t="n">
-        <v>6.18296963976905</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>6.1829696397690501</v>
+      </c>
+      <c r="E24">
         <v>10</v>
       </c>
       <c r="F24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>9</v>
       </c>
       <c r="B25" t="s">
@@ -1427,18 +1494,18 @@
       <c r="C25" t="s">
         <v>71</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.0428828735760605</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.073</v>
+      <c r="D25">
+        <v>4.28828735760605E-2</v>
+      </c>
+      <c r="E25">
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>9</v>
       </c>
       <c r="B26" t="s">
@@ -1447,18 +1514,18 @@
       <c r="C26" t="s">
         <v>73</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>3.45280160975202</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>5.9</v>
       </c>
       <c r="F26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>9</v>
       </c>
       <c r="B27" t="s">
@@ -1467,10 +1534,10 @@
       <c r="C27" t="s">
         <v>75</v>
       </c>
-      <c r="D27" t="n">
-        <v>6.2521844490302</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>6.2521844490302003</v>
+      </c>
+      <c r="E27">
         <v>11</v>
       </c>
       <c r="F27" t="s">
@@ -1479,6 +1546,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Results/Plot data/ipcc_ar6_figure_spm_sectors.xlsx
+++ b/Results/Plot data/ipcc_ar6_figure_spm_sectors.xlsx
@@ -1,265 +1,259 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamw\ownCloud\Projects\AR6-Emissions-trends-and-drivers\Results\Plot data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="info" sheetId="1" r:id="rId1"/>
-    <sheet name="direct emissions" sheetId="2" r:id="rId2"/>
-    <sheet name="indirect emissions" sheetId="3" r:id="rId3"/>
-    <sheet name="indirect emissions - subsectors" sheetId="4" r:id="rId4"/>
+    <sheet name="info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="direct emissions" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="indirect emissions" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="indirect emissions - subsectors" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>William F. Lamb</t>
-  </si>
-  <si>
-    <t>Last update</t>
-  </si>
-  <si>
-    <t>2021-10-14 10:09:23</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>https://github.com/mcc-apsis/AR6-Emissions-trends-and-drivers/blob/master/R/Analysis%20and%20figures/direct_indirect_emissions.Rmd</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>GHG</t>
-  </si>
-  <si>
-    <t>GtCO2eq</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>chapter_title</t>
-  </si>
-  <si>
-    <t>AFOLU</t>
-  </si>
-  <si>
-    <t>Buildings</t>
-  </si>
-  <si>
-    <t>Electricity &amp; heat</t>
-  </si>
-  <si>
-    <t>Energy systems</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>var</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>CO2_indirect</t>
-  </si>
-  <si>
-    <t>chapter</t>
-  </si>
-  <si>
-    <t>subsector_title</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>Petroleum refining</t>
-  </si>
-  <si>
-    <t>Petroleum refining (1.1%)</t>
-  </si>
-  <si>
-    <t>Coal mining fugitive emissions</t>
-  </si>
-  <si>
-    <t>Coal mining fugitive emissions (2.2%)</t>
-  </si>
-  <si>
-    <t>Oil and gas fugitive emissions</t>
-  </si>
-  <si>
-    <t>Oil and gas fugitive emissions (4.4%)</t>
-  </si>
-  <si>
-    <t>Other (energy systems)</t>
-  </si>
-  <si>
-    <t>Other (energy systems) (4.7%)</t>
-  </si>
-  <si>
-    <t>Cement</t>
-  </si>
-  <si>
-    <t>Cement (2.6%)</t>
-  </si>
-  <si>
-    <t>Waste</t>
-  </si>
-  <si>
-    <t>Waste (3.9%)</t>
-  </si>
-  <si>
-    <t>Chemicals</t>
-  </si>
-  <si>
-    <t>Chemicals (6.3%)</t>
-  </si>
-  <si>
-    <t>Metals</t>
-  </si>
-  <si>
-    <t>Metals (7.8%)</t>
-  </si>
-  <si>
-    <t>Other (industry)</t>
-  </si>
-  <si>
-    <t>Other (industry) (13%)</t>
-  </si>
-  <si>
-    <t>Biomass burning (CH4, N2O)</t>
-  </si>
-  <si>
-    <t>Biomass burning (CH4, N2O) (0.12%)</t>
-  </si>
-  <si>
-    <t>Manure management (N2O, CH4)</t>
-  </si>
-  <si>
-    <t>Manure management (N2O, CH4) (0.72%)</t>
-  </si>
-  <si>
-    <t>Synthetic fertilizer application (N2O)</t>
-  </si>
-  <si>
-    <t>Synthetic fertilizer application (N2O) (0.75%)</t>
-  </si>
-  <si>
-    <t>Rice cultivation (CH4)</t>
-  </si>
-  <si>
-    <t>Rice cultivation (CH4) (1.7%)</t>
-  </si>
-  <si>
-    <t>Managed soils and pasture (CO2, N2O)</t>
-  </si>
-  <si>
-    <t>Managed soils and pasture (CO2, N2O) (2.5%)</t>
-  </si>
-  <si>
-    <t>Enteric Fermentation (CH4)</t>
-  </si>
-  <si>
-    <t>Enteric Fermentation (CH4) (5%)</t>
-  </si>
-  <si>
-    <t>LULUCF CO2</t>
-  </si>
-  <si>
-    <t>LULUCF CO2 (11%)</t>
-  </si>
-  <si>
-    <t>Inland Shipping</t>
-  </si>
-  <si>
-    <t>Inland Shipping (0.3%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t xml:space="preserve">Author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William F. Lamb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-25 14:54:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/mcc-apsis/AR6-Emissions-trends-and-drivers/blob/master/R/Analysis%20and%20figures/direct_indirect_emissions.Rmd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GtCO2eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chapter_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFOLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity &amp; heat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2_indirect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subsector_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petroleum refining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petroleum refining (1.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal mining fugitive emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal mining fugitive emissions (2.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil and gas fugitive emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil and gas fugitive emissions (4.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other (energy systems)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other (energy systems) (4.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cement (2.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waste (3.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemicals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemicals (6.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metals (7.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other (industry)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other (industry) (13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass burning (CH4, N2O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass burning (CH4, N2O) (0.12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manure management (N2O, CH4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manure management (N2O, CH4) (0.72%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synthetic fertilizer application (N2O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synthetic fertilizer application (N2O) (0.75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice cultivation (CH4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice cultivation (CH4) (1.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managed soils and pasture (CO2, N2O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managed soils and pasture (CO2, N2O) (2.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enteric Fermentation (CH4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enteric Fermentation (CH4) (5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULUCF CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULUCF CO2 (11%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inland Shipping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inland Shipping (0.3%)</t>
   </si>
   <si>
     <t xml:space="preserve">Rail </t>
   </si>
   <si>
-    <t>Rail  (0.43%)</t>
-  </si>
-  <si>
-    <t>Domestic Aviation</t>
-  </si>
-  <si>
-    <t>Domestic Aviation (0.67%)</t>
-  </si>
-  <si>
-    <t>Other (transport)</t>
-  </si>
-  <si>
-    <t>Other (transport) (0.9%)</t>
-  </si>
-  <si>
-    <t>International Aviation</t>
-  </si>
-  <si>
-    <t>International Aviation (1.1%)</t>
-  </si>
-  <si>
-    <t>International Shipping</t>
-  </si>
-  <si>
-    <t>International Shipping (1.3%)</t>
-  </si>
-  <si>
-    <t>Road</t>
-  </si>
-  <si>
-    <t>Road (10%)</t>
-  </si>
-  <si>
-    <t>Non-CO2 (all buildings)</t>
-  </si>
-  <si>
-    <t>Non-CO2 (all buildings) (0.073%)</t>
-  </si>
-  <si>
-    <t>Non-residential</t>
-  </si>
-  <si>
-    <t>Non-residential (5.9%)</t>
-  </si>
-  <si>
-    <t>Residential</t>
-  </si>
-  <si>
-    <t>Residential (11%)</t>
+    <t xml:space="preserve">Rail  (0.43%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic Aviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic Aviation (0.67%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other (transport)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other (transport) (0.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Aviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Aviation (1.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Shipping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Shipping (1.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road (10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-CO2 (all buildings)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-CO2 (all buildings) (0.073%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-residential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-residential (5.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential (11%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -288,23 +282,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -586,14 +570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -609,7 +593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -617,7 +601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -625,7 +609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -633,7 +617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -641,7 +625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -651,19 +635,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -674,89 +658,87 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>12.9775309663637</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>3.3032662688635801</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="n">
+        <v>3.30326626886358</v>
+      </c>
+      <c r="C3" t="n">
         <v>5.6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>13.8392696618948</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>6.1402766237465096</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="n">
+        <v>6.14027662374651</v>
+      </c>
+      <c r="C5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>14.112205732662799</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="n">
+        <v>14.1122057326628</v>
+      </c>
+      <c r="C6" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
-        <v>8.7180755740810092</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="n">
+        <v>8.71807557408101</v>
+      </c>
+      <c r="C7" t="n">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -773,238 +755,189 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>6.1402766237465096</v>
-      </c>
-      <c r="D2">
-        <v>7.3019804049961703</v>
-      </c>
-      <c r="E2">
+      <c r="C2" t="n">
+        <v>6.14027662374651</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.30198040499617</v>
+      </c>
+      <c r="E2" t="n">
         <v>12</v>
       </c>
-      <c r="F2" s="1">
-        <f t="shared" ref="F2:F10" si="0">D2/$C$13</f>
-        <v>0.12377467969564798</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>1.16170378124966</v>
       </c>
-      <c r="D3">
-        <v>7.3019804049961703</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="n">
+        <v>7.30198040499617</v>
+      </c>
+      <c r="E3" t="n">
         <v>12</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12377467969564798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>14.112205732662799</v>
-      </c>
-      <c r="D4">
-        <v>20.025390501133799</v>
-      </c>
-      <c r="E4">
+      <c r="C4" t="n">
+        <v>14.1122057326628</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.0253905011338</v>
+      </c>
+      <c r="E4" t="n">
         <v>34</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.33944713044726499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5">
-        <v>5.9131847684710799</v>
-      </c>
-      <c r="D5">
-        <v>20.025390501133799</v>
-      </c>
-      <c r="E5">
+      <c r="C5" t="n">
+        <v>5.91318476847108</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.0253905011338</v>
+      </c>
+      <c r="E5" t="n">
         <v>34</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.33944713044726499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>12.9775309663637</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>12.9775309663637</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>22</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.21998001220367044</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
+      <c r="C7"/>
+      <c r="D7" t="n">
         <v>12.9775309663637</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>22</v>
       </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.21998001220367044</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
-        <v>8.7180755740810092</v>
-      </c>
-      <c r="D8">
-        <v>8.9413661458648406</v>
-      </c>
-      <c r="E8">
+      <c r="C8" t="n">
+        <v>8.71807557408101</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.94136614586484</v>
+      </c>
+      <c r="E8" t="n">
         <v>15</v>
       </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.15156364018570817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0.223290571783821</v>
       </c>
-      <c r="D9">
-        <v>8.9413661458648406</v>
-      </c>
-      <c r="E9">
+      <c r="D9" t="n">
+        <v>8.94136614586484</v>
+      </c>
+      <c r="E9" t="n">
         <v>15</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.15156364018570817</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>3.3032662688635801</v>
-      </c>
-      <c r="D10">
-        <v>9.7478689323582799</v>
-      </c>
-      <c r="E10">
+      <c r="C10" t="n">
+        <v>3.30326626886358</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.74786893235828</v>
+      </c>
+      <c r="E10" t="n">
         <v>16</v>
       </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1652345374677073</v>
-      </c>
-      <c r="H10">
-        <f>SUM(D10,D8,D4)/C13</f>
-        <v>0.65624530810068038</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11">
-        <v>6.4446026634946998</v>
-      </c>
-      <c r="D11">
-        <v>9.7478689323582799</v>
-      </c>
-      <c r="E11">
+      <c r="C11" t="n">
+        <v>6.4446026634947</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9.74786893235828</v>
+      </c>
+      <c r="E11" t="n">
         <v>16</v>
-      </c>
-      <c r="F11" s="1">
-        <f>D11/$C$13</f>
-        <v>0.1652345374677073</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <f>SUM(C2:C11)</f>
-        <v>58.994136950716857</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1024,8 +957,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -1034,18 +967,18 @@
       <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="D2">
-        <v>0.62913870626092205</v>
-      </c>
-      <c r="E2">
-        <v>1.1000000000000001</v>
+      <c r="D2" t="n">
+        <v>0.629138706260922</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.1</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -1054,18 +987,18 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D3">
-        <v>1.2788547003970101</v>
-      </c>
-      <c r="E3">
-        <v>2.2000000000000002</v>
+      <c r="D3" t="n">
+        <v>1.27885470039701</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.2</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -1074,18 +1007,18 @@
       <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D4">
-        <v>2.6200321267052802</v>
-      </c>
-      <c r="E4">
-        <v>4.4000000000000004</v>
+      <c r="D4" t="n">
+        <v>2.62003212670528</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.4</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -1094,18 +1027,18 @@
       <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="D5">
-        <v>2.7739548716329598</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="n">
+        <v>2.77395487163296</v>
+      </c>
+      <c r="E5" t="n">
         <v>4.7</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>11</v>
       </c>
       <c r="B6" t="s">
@@ -1114,18 +1047,18 @@
       <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="D6">
-        <v>1.5483146678999999</v>
-      </c>
-      <c r="E6">
+      <c r="D6" t="n">
+        <v>1.5483146679</v>
+      </c>
+      <c r="E6" t="n">
         <v>2.6</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>11</v>
       </c>
       <c r="B7" t="s">
@@ -1134,18 +1067,18 @@
       <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="D7">
-        <v>2.3267039900826698</v>
-      </c>
-      <c r="E7">
+      <c r="D7" t="n">
+        <v>2.32670399008267</v>
+      </c>
+      <c r="E7" t="n">
         <v>3.9</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" t="n">
         <v>11</v>
       </c>
       <c r="B8" t="s">
@@ -1154,18 +1087,18 @@
       <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="D8">
-        <v>3.7006851084374102</v>
-      </c>
-      <c r="E8">
+      <c r="D8" t="n">
+        <v>3.70068510843741</v>
+      </c>
+      <c r="E8" t="n">
         <v>6.3</v>
       </c>
       <c r="F8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" t="n">
         <v>11</v>
       </c>
       <c r="B9" t="s">
@@ -1174,18 +1107,18 @@
       <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="D9">
-        <v>4.5967716177169802</v>
-      </c>
-      <c r="E9">
+      <c r="D9" t="n">
+        <v>4.59677161771698</v>
+      </c>
+      <c r="E9" t="n">
         <v>7.8</v>
       </c>
       <c r="F9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" t="n">
         <v>11</v>
       </c>
       <c r="B10" t="s">
@@ -1194,18 +1127,18 @@
       <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="D10">
-        <v>7.8529151169967699</v>
-      </c>
-      <c r="E10">
+      <c r="D10" t="n">
+        <v>7.85291511699677</v>
+      </c>
+      <c r="E10" t="n">
         <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="n">
         <v>7</v>
       </c>
       <c r="B11" t="s">
@@ -1214,18 +1147,18 @@
       <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="D11">
-        <v>6.8278505761706396E-2</v>
-      </c>
-      <c r="E11">
+      <c r="D11" t="n">
+        <v>0.0682785057617064</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.12</v>
       </c>
       <c r="F11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>7</v>
       </c>
       <c r="B12" t="s">
@@ -1234,18 +1167,18 @@
       <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="D12">
-        <v>0.42601653291333402</v>
-      </c>
-      <c r="E12">
+      <c r="D12" t="n">
+        <v>0.426016532913334</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.72</v>
       </c>
       <c r="F12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="n">
         <v>7</v>
       </c>
       <c r="B13" t="s">
@@ -1254,18 +1187,18 @@
       <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="D13">
-        <v>0.44300686807247702</v>
-      </c>
-      <c r="E13">
+      <c r="D13" t="n">
+        <v>0.443006868072477</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.75</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" t="n">
         <v>7</v>
       </c>
       <c r="B14" t="s">
@@ -1274,18 +1207,18 @@
       <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>1.01757779807094</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>1.7</v>
       </c>
       <c r="F14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" t="n">
         <v>7</v>
       </c>
       <c r="B15" t="s">
@@ -1294,18 +1227,18 @@
       <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>1.45580903462043</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>2.5</v>
       </c>
       <c r="F15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>7</v>
       </c>
       <c r="B16" t="s">
@@ -1314,18 +1247,18 @@
       <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>2.96180337932477</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>7</v>
       </c>
       <c r="B17" t="s">
@@ -1334,18 +1267,18 @@
       <c r="C17" t="s">
         <v>55</v>
       </c>
-      <c r="D17">
-        <v>6.6050388476000004</v>
-      </c>
-      <c r="E17">
+      <c r="D17" t="n">
+        <v>6.6050388476</v>
+      </c>
+      <c r="E17" t="n">
         <v>11</v>
       </c>
       <c r="F17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" t="n">
         <v>10</v>
       </c>
       <c r="B18" t="s">
@@ -1354,18 +1287,18 @@
       <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>0.176709821781149</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>0.3</v>
       </c>
       <c r="F18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" t="n">
         <v>10</v>
       </c>
       <c r="B19" t="s">
@@ -1374,18 +1307,18 @@
       <c r="C19" t="s">
         <v>59</v>
       </c>
-      <c r="D19">
-        <v>0.25387281446466903</v>
-      </c>
-      <c r="E19">
+      <c r="D19" t="n">
+        <v>0.253872814464669</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.43</v>
       </c>
       <c r="F19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" t="n">
         <v>10</v>
       </c>
       <c r="B20" t="s">
@@ -1394,18 +1327,18 @@
       <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="D20">
-        <v>0.39413811281014099</v>
-      </c>
-      <c r="E20">
+      <c r="D20" t="n">
+        <v>0.394138112810141</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.67</v>
       </c>
       <c r="F20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="n">
         <v>10</v>
       </c>
       <c r="B21" t="s">
@@ -1414,18 +1347,18 @@
       <c r="C21" t="s">
         <v>63</v>
       </c>
-      <c r="D21">
-        <v>0.53223409325138704</v>
-      </c>
-      <c r="E21">
+      <c r="D21" t="n">
+        <v>0.532234093251387</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.9</v>
       </c>
       <c r="F21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" t="n">
         <v>10</v>
       </c>
       <c r="B22" t="s">
@@ -1434,18 +1367,18 @@
       <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>0.620824495451895</v>
       </c>
-      <c r="E22">
-        <v>1.1000000000000001</v>
+      <c r="E22" t="n">
+        <v>1.1</v>
       </c>
       <c r="F22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" t="n">
         <v>10</v>
       </c>
       <c r="B23" t="s">
@@ -1454,18 +1387,18 @@
       <c r="C23" t="s">
         <v>67</v>
       </c>
-      <c r="D23">
-        <v>0.78061716833654304</v>
-      </c>
-      <c r="E23">
+      <c r="D23" t="n">
+        <v>0.780617168336543</v>
+      </c>
+      <c r="E23" t="n">
         <v>1.3</v>
       </c>
       <c r="F23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" t="n">
         <v>10</v>
       </c>
       <c r="B24" t="s">
@@ -1474,18 +1407,18 @@
       <c r="C24" t="s">
         <v>69</v>
       </c>
-      <c r="D24">
-        <v>6.1829696397690501</v>
-      </c>
-      <c r="E24">
+      <c r="D24" t="n">
+        <v>6.18296963976905</v>
+      </c>
+      <c r="E24" t="n">
         <v>10</v>
       </c>
       <c r="F24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" t="n">
         <v>9</v>
       </c>
       <c r="B25" t="s">
@@ -1494,18 +1427,18 @@
       <c r="C25" t="s">
         <v>71</v>
       </c>
-      <c r="D25">
-        <v>4.28828735760605E-2</v>
-      </c>
-      <c r="E25">
-        <v>7.2999999999999995E-2</v>
+      <c r="D25" t="n">
+        <v>0.0428828735760605</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.073</v>
       </c>
       <c r="F25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" t="n">
         <v>9</v>
       </c>
       <c r="B26" t="s">
@@ -1514,18 +1447,18 @@
       <c r="C26" t="s">
         <v>73</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>3.45280160975202</v>
       </c>
-      <c r="E26">
-        <v>5.9</v>
+      <c r="E26" t="n">
+        <v>5.8</v>
       </c>
       <c r="F26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" t="n">
         <v>9</v>
       </c>
       <c r="B27" t="s">
@@ -1534,10 +1467,10 @@
       <c r="C27" t="s">
         <v>75</v>
       </c>
-      <c r="D27">
-        <v>6.2521844490302003</v>
-      </c>
-      <c r="E27">
+      <c r="D27" t="n">
+        <v>6.2521844490302</v>
+      </c>
+      <c r="E27" t="n">
         <v>11</v>
       </c>
       <c r="F27" t="s">
@@ -1546,6 +1479,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>